--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,35 +466,45 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>near school</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ratings</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>dorm</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>rating</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>barangay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>distance</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>rides</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>details</t>
         </is>
@@ -502,7 +512,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6000</v>
+        <v>12345</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -526,36 +536,46 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>upper bicutan</t>
+          <t>Upper Bicutan</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>KIM ESTAURA RESIDENCE</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9.999990000010001e-07</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>Kim Legendary Living</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>Taguig</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Lower Bicutan</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Upper Bicutan</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N2" t="n">
         <v>2</v>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>{'name': 'KIM ESTAURA RESIDENCE', 'budget': 5000, 'location': 'Taguig', 'room_size': 'single', 'bathroom': 'private', 'environment': 'quiet', 'distance': 1.59, 'rides': 2, 'barangay': 'Lower Bicutan', 'near_school': nan, 'barangay.1': nan, 'barangay.2': nan, 'barangay.3': nan, 'barangay.4': nan}</t>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{'name': 'Kim Legendary Living', 'budget': 12345, 'location': 'Taguig', 'room_size': 'Single', 'bathroom': 'Private', 'environment': 'Social', 'distance': 1.5, 'rides': 2, 'barangay': 'Upper Bicutan', 'address': 'Blk 69 Lot 69 Tibi St', 'landmark': 'JR Store', 'near_school': 'TCU', 'link': 'https://web.facebook.com/groups/982859945207269/posts/2590425444450703/', 'wifi': 'Available', 'likes': nan}</t>
         </is>
       </c>
     </row>
@@ -566,33 +586,35 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Kim Espolong</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8.426001088976381e-08</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Taguig</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Upper bicutan</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>{'name': 'Kim Espolong', 'budget': 2555, 'location': 'Taguig', 'room_size': 'single', 'bathroom': 'private', 'environment': 'quiet', 'distance': 1.9, 'rides': 2, 'barangay': 'Upper bicutan', 'near_school': nan, 'barangay.1': nan, 'barangay.2': nan, 'barangay.3': nan, 'barangay.4': nan}</t>
+          <t>Serendipity Living</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>7.908262509965794e-09</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Paranaque</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Hagonoy</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>{'name': 'Serendipity Living', 'budget': 1100, 'location': 'Paranaque', 'room_size': 'Double', 'bathroom': 'Private', 'environment': 'Quiet', 'distance': 2.3, 'rides': 3, 'barangay': 'Hagonoy', 'address': nan, 'landmark': nan, 'near_school': 'Harmony High', 'link': nan, 'wifi': 'Not Available', 'likes': nan}</t>
         </is>
       </c>
     </row>
@@ -603,29 +625,35 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Dorm H</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4.164931105167384e-08</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
+          <t>Pinnacle Residence</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>7.908262509965794e-09</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>Paranaque</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>{'name': 'Dorm H', 'budget': 1100, 'location': 'Paranaque', 'room_size': 'double', 'bathroom': 'private', 'environment': 'quiet', 'distance': 2.3, 'rides': 3, 'barangay': nan, 'near_school': nan, 'barangay.1': nan, 'barangay.2': nan, 'barangay.3': nan, 'barangay.4': nan}</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Lower Bicutan</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>{'name': 'Pinnacle Residence', 'budget': 1100, 'location': 'Paranaque', 'room_size': 'Double', 'bathroom': 'Private', 'environment': 'Quiet', 'distance': 2.0, 'rides': 2, 'barangay': 'Lower Bicutan', 'address': nan, 'landmark': nan, 'near_school': 'City Heights Academy', 'link': nan, 'wifi': 'Not Available', 'likes': nan}</t>
         </is>
       </c>
     </row>
